--- a/mulligan/mulligan.xlsx
+++ b/mulligan/mulligan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utsadas6/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25DD9678-B06B-BD4D-BC52-E8C46123072E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B146D33-303F-EA42-B3C9-BD6723E3F8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{C816F3EA-1CAA-6343-A8F4-43131A32A893}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C816F3EA-1CAA-6343-A8F4-43131A32A893}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,233 +193,24 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.3073805361756107E-2"/>
+          <c:y val="1.0876276604038356E-2"/>
+          <c:w val="0.96120910230032641"/>
+          <c:h val="0.83547844390738291"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pokemon Count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BFF8-BC40-8221-8A14086E5FC1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$2</c:f>
@@ -1397,16 +1188,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1753,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F122607-DA01-F942-8C9E-F10491FC2365}">
   <dimension ref="A2:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
